--- a/biology/Botanique/Elaeagnaceae/Elaeagnaceae.xlsx
+++ b/biology/Botanique/Elaeagnaceae/Elaeagnaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Elaeagnaceae (les Éléagnacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Rosales qui comprend 50 espèces réparties en 3 genres.
 Ce sont des arbres ou des arbustes, parfois épineux, certains adaptés aux zones arides, des steppes ou des côtes tempérées à tropicales. Certaines espèces produisent des fruits comestibles. C'est le cas de l'argousier (Hippophae rhamnoides) et de Eleagnus angustifolia.
@@ -512,17 +524,19 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Elaeagnus qui fut longtemps confondu avec le genre Salix.
-L’Elaeagnus, « Chalef » selon Fournier, est le nom d’un arbrisseau indéterminé, issu du grec ελαια / elaia, olivier, et αγνοσ / agnos, agnus castus ou gattilier[1].
-Selon Maarten et al, le mot Elaeagnus est issu du grec ελαίαγνος / elaíagnos, désignant un saule, mot lui-même dérivé des mots grecs ελώδες / helodes, « poussant dans les marécages », et αγνός / agnos, pur, en référence aux fruits blancs d'un saule. Le nom aurait été ensuite appliqué à l'oléaster (Elaeagnos angustifolia ou Salix elaeagnos), qui ressemble à un saule[2].
+L’Elaeagnus, « Chalef » selon Fournier, est le nom d’un arbrisseau indéterminé, issu du grec ελαια / elaia, olivier, et αγνοσ / agnos, agnus castus ou gattilier.
+Selon Maarten et al, le mot Elaeagnus est issu du grec ελαίαγνος / elaíagnos, désignant un saule, mot lui-même dérivé des mots grecs ελώδες / helodes, « poussant dans les marécages », et αγνός / agnos, pur, en référence aux fruits blancs d'un saule. Le nom aurait été ensuite appliqué à l'oléaster (Elaeagnos angustifolia ou Salix elaeagnos), qui ressemble à un saule.
 Cependant, le nom vernaculaire chalef qui, en français désigne les éléagnus, est rapproché d’un des mots arabes désignant le « saule », sans doute par amalgame entre les genres Elaeagnus et Salix.
 Une origine sémitique du mot est probable. En arabe deux mots désignent le saule : صَفْصَاف (safsaf) et خلاف (khalaf ou khilaf), saule d’Égypte, Salix aegyptiaca, qui a donné « chalaf », « calafé », « chalif », « bulef » attribués au saule commun Salix alba, ainsi que « safsaf », attribué au saule de Babylone ou Saule pleureur, Salix babylonica, et aussi à Salix subserrata[note 1].
 Or خلاف (khilaf) a une double signification en arabe, « saule » et « désaccord, contestation ». L’historien irakien du XIIIe siècle, Ibn al-Tiqtaqa[note 2], dans son « Histoire des dynasties musulmanes » raconte cette anecdote : 
-« Un jour, Mansour[note 3] remarqua dans son jardin un petit arbuste de saule d’Égypte de l'espèce dite khilâf. Ne connaissant pas cette plante, il demanda : « Quel est le nom de cet arbuste, Rabi'[note 4] ? — Unanimité et accord », répondit le vizir, parce qu'il lui répugnait de dire : désaccord (khilâf). Mansour admira son esprit d'à-propos et il fut satisfait de sa réponse[3]. »
+« Un jour, Mansour[note 3] remarqua dans son jardin un petit arbuste de saule d’Égypte de l'espèce dite khilâf. Ne connaissant pas cette plante, il demanda : « Quel est le nom de cet arbuste, Rabi'[note 4] ? — Unanimité et accord », répondit le vizir, parce qu'il lui répugnait de dire : désaccord (khilâf). Mansour admira son esprit d'à-propos et il fut satisfait de sa réponse. »
 .
-Quant à l'olivier de Bohème, Elaeagnus angustifolia (Elaeagnaceae), dont le feuillage ressemble à celui du Saule (Salicaceae), il est nommé chale au Proche-Orient[4],[5].
+Quant à l'olivier de Bohème, Elaeagnus angustifolia (Elaeagnaceae), dont le feuillage ressemble à celui du Saule (Salicaceae), il est nommé chale au Proche-Orient,.
 </t>
         </is>
       </c>
@@ -551,10 +565,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[6], cette famille était placée l'ordre des Proteales.
-La classification phylogénétique APG III (2009)[7] la situe dans l'ordre des Rosales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), cette famille était placée l'ordre des Proteales.
+La classification phylogénétique APG III (2009) la situe dans l'ordre des Rosales.
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (31 mai 2010)[8], NCBI  (31 mai 2010)[9], DELTA Angio           (31 mai 2010)[10] et ITIS      (31 mai 2010)[11] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (31 mai 2010), NCBI  (31 mai 2010), DELTA Angio           (31 mai 2010) et ITIS      (31 mai 2010) :
 Elaeagnus L.
 Hippophae L.
 Shepherdia Nutt.</t>
@@ -616,9 +634,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (31 mai 2010)[9] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (31 mai 2010) :
 genre Elaeagnus
 Elaeagnus angustifolia
 Elaeagnus bockii
